--- a/CMMI/PP/Matriz de Responsabilidades/MBAWA_001_MatrizDeResponsabilidades_001.xlsx
+++ b/CMMI/PP/Matriz de Responsabilidades/MBAWA_001_MatrizDeResponsabilidades_001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\ITI 901\Administración de Proyectos de TI II\1er Parcial\Actividad 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,11 +15,7 @@
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
     <sheet name="Cambios" sheetId="3" r:id="rId2"/>
     <sheet name="Matriz de reponsabilidades" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="105">
   <si>
     <t>&lt;Logotipo&gt;</t>
   </si>
@@ -339,6 +335,12 @@
   </si>
   <si>
     <t>Aldo Omar Guajardo Chavez</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>MBautrocristales/AP/blob/master/CMMI/PP/Matriz%20de%20Responsabilidades/MBAWA_001_MatrizDeResponsabilidades_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -438,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -524,15 +526,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB1BBCC"/>
       </left>
       <right/>
@@ -561,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -593,15 +586,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -614,6 +613,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,27 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,23 +754,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Identificación"/>
-      <sheetName val="Cambios"/>
-      <sheetName val="Matriz de comunicación"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,7 +1022,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,21 +1039,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
+      <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1100,7 +1073,7 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="5"/>
@@ -1122,7 +1095,7 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="17">
         <v>42511</v>
       </c>
       <c r="D11" s="5"/>
@@ -1139,12 +1112,14 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
@@ -1153,7 +1128,9 @@
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5"/>
     </row>
@@ -1166,10 +1143,10 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
@@ -1189,7 +1166,7 @@
       <c r="B18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="17">
         <v>42511</v>
       </c>
       <c r="D18" s="5"/>
@@ -1218,10 +1195,10 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
@@ -1241,7 +1218,7 @@
       <c r="B24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="17">
         <v>42511</v>
       </c>
       <c r="D24" s="5"/>
@@ -1252,7 +1229,7 @@
       <c r="B25" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="17">
         <v>42511</v>
       </c>
       <c r="D25" s="5"/>
@@ -1263,7 +1240,7 @@
       <c r="B26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="17">
         <v>42511</v>
       </c>
       <c r="D26" s="5"/>
@@ -1278,12 +1255,12 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1337,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,18 +1326,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1374,7 +1351,7 @@
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="5"/>
@@ -1394,7 +1371,7 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="17">
         <v>42511</v>
       </c>
       <c r="C10" s="5"/>
@@ -1410,11 +1387,13 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
@@ -1422,7 +1401,9 @@
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
@@ -1439,12 +1420,12 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1493,7 +1474,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,40 +1485,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="31"/>
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -1564,77 +1545,158 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="24"/>
       <c r="C8" t="s">
         <v>31</v>
       </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="24"/>
       <c r="C9" t="s">
         <v>31</v>
       </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
       <c r="J9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="24"/>
       <c r="C10" t="s">
         <v>31</v>
       </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="24"/>
       <c r="C11" t="s">
         <v>31</v>
       </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="24"/>
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -1661,10 +1723,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="24"/>
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -1691,10 +1753,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="24"/>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -1721,10 +1783,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="24"/>
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -1751,10 +1813,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="24"/>
       <c r="C17" t="s">
         <v>23</v>
       </c>
@@ -1781,10 +1843,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="24"/>
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -1811,10 +1873,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="24"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -1841,16 +1903,16 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="24"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1872,12 +1934,15 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="24"/>
       <c r="C22" t="s">
         <v>31</v>
       </c>
@@ -1899,12 +1964,15 @@
       <c r="I22" t="s">
         <v>25</v>
       </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="24"/>
       <c r="C23" t="s">
         <v>23</v>
       </c>
@@ -1926,12 +1994,15 @@
       <c r="I23" t="s">
         <v>25</v>
       </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="24"/>
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -1953,12 +2024,15 @@
       <c r="I24" t="s">
         <v>25</v>
       </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="24"/>
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -1980,12 +2054,15 @@
       <c r="I25" t="s">
         <v>25</v>
       </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="24"/>
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -2007,12 +2084,15 @@
       <c r="I26" t="s">
         <v>25</v>
       </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="24"/>
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -2034,21 +2114,27 @@
       <c r="I27" t="s">
         <v>25</v>
       </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="24"/>
       <c r="C29" t="s">
         <v>23</v>
       </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
       <c r="E29" t="s">
         <v>22</v>
       </c>
@@ -2064,15 +2150,21 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="24"/>
       <c r="C30" t="s">
         <v>23</v>
       </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
       <c r="E30" t="s">
         <v>22</v>
       </c>
@@ -2088,15 +2180,21 @@
       <c r="I30" t="s">
         <v>25</v>
       </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="24"/>
       <c r="C31" t="s">
         <v>23</v>
       </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
@@ -2112,15 +2210,21 @@
       <c r="I31" t="s">
         <v>25</v>
       </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="24"/>
       <c r="C32" t="s">
         <v>23</v>
       </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
       <c r="E32" t="s">
         <v>22</v>
       </c>
@@ -2136,15 +2240,21 @@
       <c r="I32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="24"/>
       <c r="C33" t="s">
         <v>23</v>
       </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
       <c r="E33" t="s">
         <v>22</v>
       </c>
@@ -2160,15 +2270,21 @@
       <c r="I33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="24"/>
       <c r="C34" t="s">
         <v>23</v>
       </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
@@ -2184,15 +2300,21 @@
       <c r="I34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="24"/>
       <c r="C35" t="s">
         <v>23</v>
       </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
       <c r="E35" t="s">
         <v>22</v>
       </c>
@@ -2208,15 +2330,21 @@
       <c r="I35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="24"/>
       <c r="C36" t="s">
         <v>23</v>
       </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
       <c r="E36" t="s">
         <v>22</v>
       </c>
@@ -2232,15 +2360,21 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="24"/>
       <c r="C37" t="s">
         <v>23</v>
       </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
       <c r="E37" t="s">
         <v>22</v>
       </c>
@@ -2256,15 +2390,21 @@
       <c r="I37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="24"/>
       <c r="C38" t="s">
         <v>23</v>
       </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
       <c r="E38" t="s">
         <v>25</v>
       </c>
@@ -2280,21 +2420,30 @@
       <c r="I38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="27"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="B39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="24"/>
       <c r="C40" t="s">
         <v>23</v>
       </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
       <c r="F40" t="s">
         <v>22</v>
       </c>
@@ -2307,15 +2456,24 @@
       <c r="I40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="24"/>
       <c r="C41" t="s">
         <v>23</v>
       </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
       <c r="F41" t="s">
         <v>22</v>
       </c>
@@ -2328,15 +2486,24 @@
       <c r="I41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="24"/>
       <c r="C42" t="s">
         <v>23</v>
       </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
       <c r="F42" t="s">
         <v>22</v>
       </c>
@@ -2349,15 +2516,24 @@
       <c r="I42" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="24"/>
       <c r="C43" t="s">
         <v>23</v>
       </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
       <c r="F43" t="s">
         <v>22</v>
       </c>
@@ -2370,15 +2546,24 @@
       <c r="I43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="24"/>
       <c r="C44" t="s">
         <v>23</v>
       </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
       <c r="F44" t="s">
         <v>22</v>
       </c>
@@ -2391,15 +2576,24 @@
       <c r="I44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="24"/>
       <c r="C45" t="s">
         <v>23</v>
       </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
       <c r="F45" t="s">
         <v>25</v>
       </c>
@@ -2412,15 +2606,24 @@
       <c r="I45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="24"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
       <c r="F46" t="s">
         <v>25</v>
       </c>
@@ -2433,15 +2636,24 @@
       <c r="I46" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="24"/>
       <c r="C47" t="s">
         <v>23</v>
       </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
       <c r="F47" t="s">
         <v>25</v>
       </c>
@@ -2454,15 +2666,24 @@
       <c r="I47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="24"/>
       <c r="C48" t="s">
         <v>23</v>
       </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
       <c r="F48" t="s">
         <v>25</v>
       </c>
@@ -2475,15 +2696,24 @@
       <c r="I48" t="s">
         <v>25</v>
       </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="24"/>
       <c r="C49" t="s">
         <v>23</v>
       </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
       <c r="F49" t="s">
         <v>25</v>
       </c>
@@ -2496,15 +2726,24 @@
       <c r="I49" t="s">
         <v>25</v>
       </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="24"/>
       <c r="C50" t="s">
         <v>23</v>
       </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
       <c r="F50" t="s">
         <v>25</v>
       </c>
@@ -2517,15 +2756,24 @@
       <c r="I50" t="s">
         <v>25</v>
       </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="24"/>
       <c r="C51" t="s">
         <v>23</v>
       </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
       <c r="F51" t="s">
         <v>25</v>
       </c>
@@ -2538,18 +2786,21 @@
       <c r="I51" t="s">
         <v>25</v>
       </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="27"/>
+      <c r="B52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="24"/>
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -2576,10 +2827,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="24"/>
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -2601,12 +2852,15 @@
       <c r="I54" t="s">
         <v>25</v>
       </c>
+      <c r="J54" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="24"/>
       <c r="C55" t="s">
         <v>31</v>
       </c>
@@ -2628,12 +2882,15 @@
       <c r="I55" t="s">
         <v>25</v>
       </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="24"/>
       <c r="C56" t="s">
         <v>31</v>
       </c>
@@ -2655,12 +2912,15 @@
       <c r="I56" t="s">
         <v>25</v>
       </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="29"/>
+      <c r="B57" s="24"/>
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -2682,164 +2942,113 @@
       <c r="I57" t="s">
         <v>25</v>
       </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="29"/>
+      <c r="B58" s="24"/>
       <c r="C58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="24"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="24"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="21" t="s">
+      <c r="A73" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="21" t="s">
+      <c r="A75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
@@ -2856,78 +3065,62 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>